--- a/biology/Zoologie/Heterocyathus_antoniae/Heterocyathus_antoniae.xlsx
+++ b/biology/Zoologie/Heterocyathus_antoniae/Heterocyathus_antoniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterocyathus antoniae est une espèce de coraux de la famille des Caryophylliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterocyathus antoniae est une espèce de coraux de la famille des Caryophylliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les échantillons prélevés en Colombie l'ont été entre 20 et 70 m de profondeur dans le Nord-Est de la mer des Caraïbes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les échantillons prélevés en Colombie l'ont été entre 20 et 70 m de profondeur dans le Nord-Est de la mer des Caraïbes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, antoniae, lui a été donné en l'honneur d'Antonia Reyes, la fille ainée de Javier Reyes Hernández (d), l'un des auteurs de cette espèce[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, antoniae, lui a été donné en l'honneur d'Antonia Reyes, la fille ainée de Javier Reyes Hernández (d), l'un des auteurs de cette espèce.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Javier Reyes, Nadiezhda Santodomingo et Stephen Cairns, « Caryophylliidae (Scleractinia) from the Colombian Caribbean », Zootaxa, Magnolia Press (d), vol. 2262, no 1,‎ 12 octobre 2009, p. 1–39 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2262.1.1, lire en ligne)</t>
         </is>
